--- a/DATA_rest.xlsx
+++ b/DATA_rest.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docMgrJozefKiseľákPh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151F37B-B9B6-4695-95AB-D4658138591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -854,17 +853,17 @@
     <t>Predmety na rozvoj MV</t>
   </si>
   <si>
-    <t>Met. materiály na rozvoj MV</t>
-  </si>
-  <si>
     <t>Potreby učiteľov v rozvoji MV</t>
+  </si>
+  <si>
+    <t>Met. materiály na rozvoj MV2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,27 +908,13 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
-    <cellStyle name="Normálna 2" xfId="1" xr:uid="{A85681AA-2061-42B2-ABFD-13388957ACAF}"/>
+    <cellStyle name="Normálna 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -958,16 +943,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0">
-  <autoFilter ref="A1:G1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576"/>
   <tableColumns count="7">
-    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0000-00007E000000}" name="Predmety na rozvoj MV" dataDxfId="6"/>
-    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0000-000081000000}" name="Učiteľ v rozvoji MV" dataDxfId="5"/>
-    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0000-000084000000}" name="Metódy rozvoja  MV" dataDxfId="4"/>
-    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0000-00008D000000}" name="Vzdelávanie v MV" dataDxfId="3"/>
-    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0000-000090000000}" name="Met. materiály na rozvoj MV" dataDxfId="2"/>
-    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0000-000093000000}" name="Podmienky na rozvoj MV" dataDxfId="1"/>
-    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="Potreby učiteľov v rozvoji MV" dataDxfId="0"/>
+    <tableColumn id="126" name="Predmety na rozvoj MV" dataDxfId="5"/>
+    <tableColumn id="129" name="Učiteľ v rozvoji MV" dataDxfId="4"/>
+    <tableColumn id="132" name="Metódy rozvoja  MV" dataDxfId="3"/>
+    <tableColumn id="141" name="Vzdelávanie v MV" dataDxfId="2"/>
+    <tableColumn id="1" name="Met. materiály na rozvoj MV2"/>
+    <tableColumn id="147" name="Podmienky na rozvoj MV" dataDxfId="1"/>
+    <tableColumn id="150" name="Potreby učiteľov v rozvoji MV" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1269,21 +1254,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>271</v>
       </c>
@@ -1297,16 +1282,16 @@
         <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" t="s">
         <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1398,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +1429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1467,7 +1452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +1521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1582,7 +1567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1651,7 +1636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1674,7 +1659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1766,7 +1751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1789,7 +1774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1812,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1835,7 +1820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +1866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1904,7 +1889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1927,7 +1912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +1958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2019,7 +2004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2042,7 +2027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2065,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2088,7 +2073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2111,7 +2096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2134,7 +2119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2157,7 +2142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -2203,7 +2188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2249,7 +2234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2272,7 +2257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2295,7 +2280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2364,7 +2349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2387,7 +2372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2456,7 +2441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +2464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2502,7 +2487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -2571,7 +2556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2594,7 +2579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -2617,7 +2602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2686,7 +2671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -2709,7 +2694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2732,7 +2717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +2740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -2801,7 +2786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2847,7 +2832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2870,7 +2855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -2893,7 +2878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -2962,7 +2947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -2985,7 +2970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +2993,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3054,7 +3039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -3077,7 +3062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3100,7 +3085,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -3123,7 +3108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -3146,7 +3131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -3169,7 +3154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -3192,7 +3177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -3215,7 +3200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -3238,7 +3223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -3261,7 +3246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -3284,7 +3269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3307,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -3330,7 +3315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -3353,7 +3338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -3376,7 +3361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -3399,7 +3384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -3422,7 +3407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3445,7 +3430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -3468,7 +3453,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -3491,7 +3476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -3514,7 +3499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -3560,7 +3545,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -3583,7 +3568,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -3606,7 +3591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -3629,7 +3614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +3637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +3660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -3698,7 +3683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -3721,7 +3706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -3744,7 +3729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -3767,7 +3752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -3790,7 +3775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -3813,7 +3798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3836,7 +3821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3859,7 +3844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -3882,7 +3867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -3905,7 +3890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -3928,7 +3913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -3951,7 +3936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -3974,7 +3959,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -3997,7 +3982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -4020,7 +4005,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -4043,7 +4028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -4066,7 +4051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -4089,7 +4074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -4112,7 +4097,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -4135,7 +4120,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -4158,7 +4143,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -4181,7 +4166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -4204,7 +4189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -4227,7 +4212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -4250,7 +4235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -4273,7 +4258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -4296,7 +4281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +4304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -4342,7 +4327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -4365,7 +4350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -4388,7 +4373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -4411,7 +4396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -4434,7 +4419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4457,7 +4442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -4480,7 +4465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -4503,7 +4488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -4526,7 +4511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -4549,7 +4534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -4572,7 +4557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -4595,7 +4580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -4618,7 +4603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -4641,7 +4626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -4664,7 +4649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -4687,7 +4672,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -4710,7 +4695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4733,7 +4718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -4756,7 +4741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -4779,7 +4764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4802,7 +4787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -4825,7 +4810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -4848,7 +4833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -4871,7 +4856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -4894,7 +4879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -4917,7 +4902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -4940,7 +4925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4963,7 +4948,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -4986,7 +4971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -5009,7 +4994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -5032,7 +5017,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -5055,7 +5040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>59</v>
       </c>
@@ -5078,7 +5063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -5101,7 +5086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -5124,7 +5109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -5147,7 +5132,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -5170,7 +5155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -5193,7 +5178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -5216,7 +5201,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -5239,7 +5224,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -5262,7 +5247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5285,7 +5270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -5308,7 +5293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -5331,7 +5316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -5354,7 +5339,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -5377,7 +5362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -5400,7 +5385,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -5423,7 +5408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -5446,7 +5431,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +5454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -5492,7 +5477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -5515,7 +5500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -5538,7 +5523,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -5561,7 +5546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -5584,7 +5569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -5607,7 +5592,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5630,7 +5615,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -5653,7 +5638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -5676,7 +5661,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -5699,7 +5684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -5722,7 +5707,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>1</v>
       </c>
@@ -5745,7 +5730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -5768,7 +5753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -5791,7 +5776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -5814,7 +5799,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5837,7 +5822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -5860,7 +5845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>59</v>
       </c>
@@ -5883,7 +5868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -5906,7 +5891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -5929,7 +5914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -5952,7 +5937,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5975,7 +5960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -5998,7 +5983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -6021,7 +6006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -6044,7 +6029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>1</v>
       </c>
@@ -6067,7 +6052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -6090,7 +6075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -6113,7 +6098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>59</v>
       </c>
@@ -6136,7 +6121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -6159,7 +6144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>1</v>
       </c>
@@ -6182,7 +6167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -6205,7 +6190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -6228,7 +6213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -6251,7 +6236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>59</v>
       </c>
@@ -6274,7 +6259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>1</v>
       </c>
@@ -6297,7 +6282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -6320,7 +6305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>1</v>
       </c>
@@ -6343,7 +6328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>1</v>
       </c>
@@ -6366,7 +6351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -6389,7 +6374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>1</v>
       </c>
@@ -6412,7 +6397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -6435,7 +6420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -6458,7 +6443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>1</v>
       </c>
@@ -6481,7 +6466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>59</v>
       </c>
@@ -6504,7 +6489,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -6527,7 +6512,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>1</v>
       </c>
@@ -6550,7 +6535,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6573,7 +6558,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -6596,7 +6581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>1</v>
       </c>
@@ -6619,7 +6604,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>1</v>
       </c>
@@ -6642,7 +6627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>1</v>
       </c>
@@ -6665,7 +6650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -6688,7 +6673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>1</v>
       </c>
@@ -6711,7 +6696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -6734,7 +6719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>59</v>
       </c>
@@ -6757,7 +6742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -6780,7 +6765,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -6803,7 +6788,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -6826,7 +6811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -6849,7 +6834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -6872,7 +6857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -6895,7 +6880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -6918,7 +6903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -6941,7 +6926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -6964,7 +6949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -6987,7 +6972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -7010,7 +6995,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -7033,7 +7018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -7056,7 +7041,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -7079,7 +7064,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -7102,7 +7087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -7125,7 +7110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -7148,7 +7133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -7171,7 +7156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -7194,7 +7179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>59</v>
       </c>
@@ -7217,7 +7202,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -7240,7 +7225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>34</v>
       </c>
@@ -7263,7 +7248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -7286,7 +7271,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -7309,7 +7294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -7332,7 +7317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -7355,7 +7340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -7378,7 +7363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>34</v>
       </c>
@@ -7401,7 +7386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -7424,7 +7409,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>59</v>
       </c>
@@ -7447,7 +7432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -7470,7 +7455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -7493,7 +7478,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -7516,7 +7501,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -7539,7 +7524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -7562,7 +7547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>59</v>
       </c>
@@ -7585,7 +7570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -7608,7 +7593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>59</v>
       </c>
@@ -7631,7 +7616,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -7654,7 +7639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -7677,7 +7662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -7700,7 +7685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -7723,7 +7708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -7746,7 +7731,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -7769,7 +7754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -7792,7 +7777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>1</v>
       </c>
@@ -7815,7 +7800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>1</v>
       </c>
@@ -7838,7 +7823,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>1</v>
       </c>
@@ -7861,7 +7846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>59</v>
       </c>
@@ -7884,7 +7869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -7907,7 +7892,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -7930,7 +7915,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>1</v>
       </c>
@@ -7953,7 +7938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -7976,7 +7961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>1</v>
       </c>
@@ -7999,7 +7984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>1</v>
       </c>
@@ -8022,7 +8007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>1</v>
       </c>
@@ -8045,7 +8030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>1</v>
       </c>
@@ -8068,7 +8053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -8091,7 +8076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>1</v>
       </c>
@@ -8114,7 +8099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>1</v>
       </c>
@@ -8137,7 +8122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>1</v>
       </c>
@@ -8160,7 +8145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>1</v>
       </c>
@@ -8183,7 +8168,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>1</v>
       </c>
@@ -8206,7 +8191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>34</v>
       </c>
@@ -8229,7 +8214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>1</v>
       </c>
@@ -8252,7 +8237,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>1</v>
       </c>
@@ -8275,7 +8260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>1</v>
       </c>
@@ -8298,7 +8283,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>1</v>
       </c>
@@ -8321,7 +8306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>1</v>
       </c>
@@ -8344,7 +8329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>1</v>
       </c>
@@ -8367,7 +8352,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -8390,7 +8375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -8413,7 +8398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>1</v>
       </c>
@@ -8436,7 +8421,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -8459,7 +8444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>1</v>
       </c>
@@ -8482,7 +8467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>1</v>
       </c>
@@ -8505,7 +8490,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -8528,7 +8513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>1</v>
       </c>
@@ -8551,7 +8536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>1</v>
       </c>
@@ -8574,7 +8559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>1</v>
       </c>
@@ -8597,7 +8582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>1</v>
       </c>
@@ -8620,7 +8605,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>1</v>
       </c>
@@ -8643,7 +8628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>59</v>
       </c>
@@ -8666,7 +8651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>1</v>
       </c>
@@ -8689,7 +8674,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>1</v>
       </c>
@@ -8712,7 +8697,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>1</v>
       </c>
@@ -8735,7 +8720,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>1</v>
       </c>
@@ -8758,7 +8743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>1</v>
       </c>
@@ -8781,7 +8766,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>1</v>
       </c>
@@ -8804,7 +8789,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>1</v>
       </c>
@@ -8827,7 +8812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
         <v>1</v>
       </c>
@@ -8850,7 +8835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>59</v>
       </c>
@@ -8873,7 +8858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -8896,7 +8881,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>1</v>
       </c>
@@ -8919,7 +8904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>1</v>
       </c>
@@ -8942,7 +8927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>59</v>
       </c>
@@ -8965,7 +8950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>1</v>
       </c>
@@ -8988,7 +8973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>1</v>
       </c>
@@ -9011,7 +8996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>1</v>
       </c>
@@ -9034,7 +9019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>1</v>
       </c>
@@ -9057,7 +9042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>1</v>
       </c>
@@ -9080,7 +9065,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>1</v>
       </c>
@@ -9103,7 +9088,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>59</v>
       </c>
@@ -9126,7 +9111,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>1</v>
       </c>
@@ -9149,7 +9134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>59</v>
       </c>
@@ -9172,7 +9157,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>1</v>
       </c>
@@ -9195,7 +9180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -9218,7 +9203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>1</v>
       </c>
@@ -9241,7 +9226,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>1</v>
       </c>
@@ -9264,7 +9249,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>1</v>
       </c>
@@ -9287,7 +9272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>1</v>
       </c>
@@ -9310,7 +9295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>1</v>
       </c>
@@ -9333,7 +9318,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>1</v>
       </c>
@@ -9356,7 +9341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>59</v>
       </c>
@@ -9379,7 +9364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>1</v>
       </c>
@@ -9402,7 +9387,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>1</v>
       </c>
@@ -9425,7 +9410,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
         <v>1</v>
       </c>
@@ -9448,7 +9433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
         <v>1</v>
       </c>
@@ -9471,7 +9456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>59</v>
       </c>
@@ -9494,7 +9479,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>1</v>
       </c>
@@ -9517,7 +9502,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>1</v>
       </c>
@@ -9540,7 +9525,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>1</v>
       </c>
@@ -9563,7 +9548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
         <v>1</v>
       </c>
@@ -9586,7 +9571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>1</v>
       </c>
@@ -9609,7 +9594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>1</v>
       </c>
@@ -9632,7 +9617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>59</v>
       </c>
@@ -9655,7 +9640,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>1</v>
       </c>
@@ -9678,7 +9663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>1</v>
       </c>
@@ -9701,7 +9686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>59</v>
       </c>
@@ -9724,7 +9709,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>1</v>
       </c>
@@ -9747,7 +9732,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>1</v>
       </c>
@@ -9770,7 +9755,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>1</v>
       </c>
@@ -9793,7 +9778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>1</v>
       </c>
@@ -9816,7 +9801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>1</v>
       </c>
